--- a/Data/Excels/HyperElasticOdgen_TwoPoints_1.xlsx
+++ b/Data/Excels/HyperElasticOdgen_TwoPoints_1.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>InRays</t>
+          <t>{'TwoPoints'}</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -830,17 +830,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4,23e-03</t>
+          <t>1,11e-02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -860,28 +860,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -915,17 +915,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1,33e-02</t>
+          <t>3,60e-02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -945,28 +945,28 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>6,40</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2,18e-02</t>
+          <t>5,19e-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1030,28 +1030,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1085,17 +1085,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2,53e-02</t>
+          <t>5,18e-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1115,28 +1115,28 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2,58e-02</t>
+          <t>5,15e-02</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-59,65</t>
+          <t>-108,50</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>136,37</t>
+          <t>178,10</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2,32e-04</t>
+          <t>2,07e-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3,81e-04</t>
+          <t>1,85e-04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1471,28 +1471,28 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3,04e-04</t>
+          <t>1,53e-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1556,28 +1556,28 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1611,17 +1611,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3,66e-04</t>
+          <t>1,47e-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1641,28 +1641,28 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2,61e-04</t>
+          <t>1,46e-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1746,22 +1746,22 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>56,80</t>
+          <t>58,76</t>
         </is>
       </c>
     </row>
@@ -1882,17 +1882,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>8,61e-03</t>
+          <t>1,10e-02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1912,28 +1912,28 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4,10</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -1967,17 +1967,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,90</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1,91e-02</t>
+          <t>3,64e-02</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1997,28 +1997,28 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4,30</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2052,17 +2052,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1,60</t>
+          <t>1,40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2,68e-02</t>
+          <t>4,09e-02</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2082,28 +2082,28 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3,48e-02</t>
+          <t>4,95e-02</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2167,28 +2167,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>7,30</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -2222,17 +2222,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5,05e-02</t>
+          <t>6,44e-02</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>-10,41</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2272,22 +2272,22 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>6,80</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-50,84</t>
+          <t>-95,00</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>111,40</t>
+          <t>144,01</t>
         </is>
       </c>
     </row>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6,10</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1,14e-02</t>
+          <t>4,98e-02</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2438,28 +2438,28 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>13,50</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -2493,17 +2493,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9,79e-02</t>
+          <t>4,98e-01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,28 +2523,28 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-13,36</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>14,27</t>
+          <t>26,20</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>17,29</t>
+          <t>33,48</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4,30</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1,62e-01</t>
+          <t>9,66e-01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2608,28 +2608,28 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-29,2</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-14,55</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>38,01</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>19,60</t>
+          <t>47,96</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -2663,22 +2663,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2,90e-01</t>
+          <t>1,02e+00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2688,33 +2688,33 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-34,04</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>-15,35</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>39,65</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23,78</t>
+          <t>50,10</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -2748,22 +2748,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4,74e-01</t>
+          <t>1,05e+00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2773,22 +2773,22 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-9,69</t>
+          <t>-36,2</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-13,7</t>
+          <t>-15,56</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2798,22 +2798,22 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>24,43</t>
+          <t>39,89</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>31,48</t>
+          <t>50,56</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-77,36</t>
+          <t>-189,61</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>152,16</t>
+          <t>248,46</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3019,17 +3019,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1,11e-03</t>
+          <t>6,68e-04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3049,28 +3049,28 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>4,40</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>5,30</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3104,17 +3104,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>9,95e-04</t>
+          <t>8,16e-04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3134,28 +3134,28 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3189,17 +3189,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>8,58e-04</t>
+          <t>8,00e-04</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3219,28 +3219,28 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -3274,17 +3274,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,70</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>8,52e-04</t>
+          <t>7,43e-04</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3304,17 +3304,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>22,35</t>
+          <t>19,48</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>43,25</t>
+          <t>44,85</t>
         </is>
       </c>
     </row>
@@ -3460,17 +3460,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2,75e-02</t>
+          <t>1,40e-01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3490,28 +3490,28 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>14,06</t>
+          <t>14,73</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>17,98</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -3545,17 +3545,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6,35e-02</t>
+          <t>5,98e-01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3575,28 +3575,28 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-16,4</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-15,08</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>25,64</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>32,93</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3630,17 +3630,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4,60</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5,20</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1,22e-01</t>
+          <t>1,06e+00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3660,28 +3660,28 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-27,32</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-29,05</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>33,89</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>18,40</t>
+          <t>44,08</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -3715,22 +3715,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3,62e-01</t>
+          <t>2,03e+00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3740,33 +3740,33 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-62,25</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>-13,91</t>
+          <t>-41,6</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>18,84</t>
+          <t>43,28</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>58,43</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -3800,22 +3800,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>7,43e-01</t>
+          <t>2,50e+00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3825,22 +3825,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-23,82</t>
+          <t>-66,86</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-26,15</t>
+          <t>-44,17</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3850,22 +3850,22 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>29,17</t>
+          <t>45,01</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>37,84</t>
+          <t>61,73</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-100,01</t>
+          <t>-208,59</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>152,40</t>
+          <t>235,14</t>
         </is>
       </c>
     </row>
@@ -3986,58 +3986,58 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1,34e-04</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
           <t>0,86</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1,89e-04</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2,18e-04</t>
+          <t>2,96e-04</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4101,28 +4101,28 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="R43" t="inlineStr"/>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2,18e-04</t>
+          <t>2,95e-04</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4186,28 +4186,28 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2,16e-04</t>
+          <t>2,95e-04</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4271,28 +4271,28 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -4326,17 +4326,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2,14e-04</t>
+          <t>2,95e-04</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4356,17 +4356,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4376,22 +4376,22 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>53,70</t>
+          <t>52,19</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3,98e-03</t>
+          <t>1,08e-02</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4542,28 +4542,28 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -4597,17 +4597,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,10</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9,58e-03</t>
+          <t>2,11e-02</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4627,28 +4627,28 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4,70</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
@@ -4682,17 +4682,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1,96e-02</t>
+          <t>2,10e-02</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4712,28 +4712,28 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="R50" t="inlineStr"/>
@@ -4767,17 +4767,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2,08e-02</t>
+          <t>2,02e-02</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4797,28 +4797,28 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2,06e-02</t>
+          <t>1,98e-02</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4882,17 +4882,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4902,22 +4902,22 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,30</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-21,36</t>
+          <t>-22,42</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>91,37</t>
+          <t>92,17</t>
         </is>
       </c>
     </row>
@@ -5038,17 +5038,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3,83e-03</t>
+          <t>4,94e-03</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5068,28 +5068,28 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -5123,17 +5123,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4,16e-03</t>
+          <t>5,15e-03</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5153,28 +5153,28 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -5208,17 +5208,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4,32e-03</t>
+          <t>5,20e-03</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5238,28 +5238,28 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -5293,17 +5293,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>5,39e-03</t>
+          <t>5,27e-03</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5323,17 +5323,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -5378,17 +5378,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>5,46e-03</t>
+          <t>5,31e-03</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5408,12 +5408,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5428,22 +5428,22 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25,86</t>
+          <t>25,78</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>40,95</t>
+          <t>40,99</t>
         </is>
       </c>
     </row>
@@ -5564,17 +5564,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2,36e-02</t>
+          <t>1,08e-01</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5594,28 +5594,28 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -5649,17 +5649,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>6,74e-02</t>
+          <t>8,26e-01</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5679,28 +5679,28 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-22,31</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-24,29</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>32,51</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>40,11</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -5734,17 +5734,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1,42e-01</t>
+          <t>1,18e+00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5764,28 +5764,28 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-34,34</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-31,84</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>15,41</t>
+          <t>39,71</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>18,93</t>
+          <t>48,28</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -5819,22 +5819,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2,80</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3,29e-01</t>
+          <t>1,38e+00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5844,33 +5844,33 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-47,79</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>-15,15</t>
+          <t>-35,41</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>43,56</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>24,36</t>
+          <t>52,53</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -5904,22 +5904,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>7,66e-01</t>
+          <t>1,68e+00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5929,22 +5929,22 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-23,64</t>
+          <t>-72,3</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>-27,33</t>
+          <t>-42,52</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5954,22 +5954,22 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>31,58</t>
+          <t>47,09</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>39,56</t>
+          <t>57,31</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>-115,05</t>
+          <t>-220,74</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>162,37</t>
+          <t>242,18</t>
         </is>
       </c>
     </row>
@@ -6090,17 +6090,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>5,30e-04</t>
+          <t>5,57e-05</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6125,12 +6125,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>13,37</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -6175,17 +6175,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3,75e-04</t>
+          <t>4,44e-05</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6205,17 +6205,17 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -6260,17 +6260,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3,57e-04</t>
+          <t>4,26e-05</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -6345,17 +6345,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3,35e-04</t>
+          <t>3,95e-05</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -6430,17 +6430,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3,19e-04</t>
+          <t>3,81e-05</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6465,12 +6465,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>286,04</t>
+          <t>286,10</t>
         </is>
       </c>
     </row>
@@ -6616,17 +6616,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>5,27e-04</t>
+          <t>8,77e-05</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6646,28 +6646,28 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -6701,17 +6701,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4,89e-04</t>
+          <t>8,08e-05</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6731,28 +6731,28 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
@@ -6786,17 +6786,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3,78e-04</t>
+          <t>9,27e-05</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6816,23 +6816,23 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -6871,17 +6871,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2,69e-04</t>
+          <t>9,08e-05</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6901,28 +6901,28 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -6956,17 +6956,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2,66e-04</t>
+          <t>8,91e-05</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6986,17 +6986,17 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -7006,22 +7006,22 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>302,86</t>
+          <t>303,27</t>
         </is>
       </c>
     </row>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>5,18e-04</t>
+          <t>4,42e-04</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7273,7 +7273,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>4,91e-04</t>
+          <t>4,27e-04</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7358,7 +7358,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2,09e-04</t>
+          <t>4,23e-04</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7427,28 +7427,28 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
@@ -7482,47 +7482,47 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1,44e-04</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
           <t>0,45</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2,08e-04</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -7537,17 +7537,17 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>230,50</t>
+          <t>230,63</t>
         </is>
       </c>
     </row>
@@ -7668,17 +7668,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,40</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1,08e-02</t>
+          <t>4,62e-02</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7698,28 +7698,28 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>26,75</t>
+          <t>26,85</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>33,13</t>
+          <t>33,36</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
@@ -7753,17 +7753,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1,50</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2,50e-02</t>
+          <t>1,29e-01</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7783,28 +7783,28 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>26,79</t>
+          <t>29,94</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>33,25</t>
+          <t>37,23</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -7838,17 +7838,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>5,41e-02</t>
+          <t>1,65e-01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7868,28 +7868,28 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>27,17</t>
+          <t>33,56</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>33,80</t>
+          <t>41,88</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -7923,17 +7923,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1,01e-01</t>
+          <t>1,76e-01</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7953,28 +7953,28 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-20,38</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>29,80</t>
+          <t>36,65</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>37,34</t>
+          <t>46,09</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -8008,17 +8008,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>1,46e-01</t>
+          <t>1,83e-01</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8038,17 +8038,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-24,17</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -8058,22 +8058,22 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>31,36</t>
+          <t>38,81</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>39,34</t>
+          <t>49,03</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-16,63</t>
+          <t>-44,34</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>191,55</t>
+          <t>237,05</t>
         </is>
       </c>
     </row>
@@ -8284,12 +8284,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>4,29e-03</t>
+          <t>4,28e-03</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>4,24e-03</t>
+          <t>3,95e-03</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8394,17 +8394,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>16,74</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>4,21e-03</t>
+          <t>3,92e-03</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8479,17 +8479,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>16,74</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -8534,17 +8534,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>4,20e-03</t>
+          <t>2,19e-03</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8564,17 +8564,17 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -8584,22 +8584,22 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>14,12</t>
+          <t>14,10</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>141,21</t>
+          <t>141,01</t>
         </is>
       </c>
     </row>
@@ -8720,17 +8720,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1,50</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1,61e-02</t>
+          <t>5,70e-02</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8750,28 +8750,28 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>38,14</t>
+          <t>38,08</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>47,15</t>
+          <t>47,29</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -8805,17 +8805,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4,01e-02</t>
+          <t>8,05e-02</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8835,28 +8835,28 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>38,15</t>
+          <t>38,34</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>47,31</t>
+          <t>48,11</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -8890,17 +8890,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6,76e-02</t>
+          <t>1,17e-01</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8920,28 +8920,28 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>39,02</t>
+          <t>38,98</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>48,86</t>
+          <t>49,20</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -8975,17 +8975,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>8,17e-02</t>
+          <t>1,32e-01</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9005,28 +9005,28 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>39,03</t>
+          <t>40,46</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>48,96</t>
+          <t>51,34</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -9060,17 +9060,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1,06e-01</t>
+          <t>1,32e-01</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9090,17 +9090,17 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-18,39</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>22,17</t>
+          <t>23,51</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-10,05</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -9110,22 +9110,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>39,93</t>
+          <t>41,29</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>50,52</t>
+          <t>52,78</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>199,05</t>
+          <t>205,87</t>
         </is>
       </c>
     </row>
@@ -9246,17 +9246,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>5,01e-03</t>
+          <t>1,04e-02</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -9276,28 +9276,28 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>30,07</t>
+          <t>29,83</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>41,93</t>
+          <t>41,78</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
@@ -9331,17 +9331,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>5,11e-03</t>
+          <t>1,33e-02</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -9361,28 +9361,28 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>30,06</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>41,91</t>
+          <t>41,69</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -9416,17 +9416,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>5,11e-03</t>
+          <t>1,38e-02</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -9446,28 +9446,28 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>30,05</t>
+          <t>29,69</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>41,90</t>
+          <t>41,66</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -9501,17 +9501,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>7,49e-03</t>
+          <t>1,41e-02</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -9531,28 +9531,28 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>29,88</t>
+          <t>29,67</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>41,79</t>
+          <t>41,64</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -9586,17 +9586,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1,47e-02</t>
+          <t>1,46e-02</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -9616,17 +9616,17 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -9636,22 +9636,22 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>29,64</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>41,59</t>
+          <t>41,61</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>126,34</t>
+          <t>126,45</t>
         </is>
       </c>
     </row>
@@ -9772,17 +9772,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>6,51e-03</t>
+          <t>1,45e-02</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -9802,28 +9802,28 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>33,35</t>
+          <t>33,09</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>44,49</t>
+          <t>44,32</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -9857,17 +9857,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>7,69e-03</t>
+          <t>1,32e-02</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -9887,28 +9887,28 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>33,25</t>
+          <t>33,07</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>44,41</t>
+          <t>44,29</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -9942,17 +9942,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>8,73e-03</t>
+          <t>1,62e-02</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -9977,23 +9977,23 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>33,14</t>
+          <t>32,99</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>44,29</t>
+          <t>44,23</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -10027,17 +10027,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>8,99e-03</t>
+          <t>1,56e-02</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10057,28 +10057,28 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>33,13</t>
+          <t>32,98</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>44,26</t>
+          <t>44,21</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -10112,17 +10112,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>8,64e-03</t>
+          <t>1,66e-02</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10142,17 +10142,17 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -10162,22 +10162,22 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>33,13</t>
+          <t>32,96</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>44,25</t>
+          <t>44,18</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>132,75</t>
+          <t>132,08</t>
         </is>
       </c>
     </row>
@@ -10298,17 +10298,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>6,58e-03</t>
+          <t>5,01e-02</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10328,28 +10328,28 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>54,33</t>
+          <t>52,54</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>75,21</t>
+          <t>74,02</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -10383,17 +10383,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2,90</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2,80e-02</t>
+          <t>5,57e-02</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -10413,28 +10413,28 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>53,05</t>
+          <t>52,39</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>74,28</t>
+          <t>73,86</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -10468,17 +10468,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>6,64e-02</t>
+          <t>6,72e-02</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -10498,28 +10498,28 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-15,45</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>52,10</t>
+          <t>51,99</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>73,61</t>
+          <t>73,46</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -10553,27 +10553,27 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>6,71e-02</t>
+          <t>9,76e-02</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -10583,28 +10583,28 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>-12,11</t>
+          <t>-29,66</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>-8,7</t>
+          <t>-13,78</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>52,08</t>
+          <t>51,12</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>73,55</t>
+          <t>72,58</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -10638,27 +10638,27 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>8,89e-02</t>
+          <t>8,80e-02</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10668,17 +10668,17 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>-16,23</t>
+          <t>-35,76</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>-14,47</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -10688,22 +10688,22 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>51,67</t>
+          <t>51,02</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>73,26</t>
+          <t>72,31</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>112,14</t>
+          <t>110,73</t>
         </is>
       </c>
     </row>
@@ -10824,17 +10824,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>2,30</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1,29e-02</t>
+          <t>5,70e-02</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -10854,28 +10854,28 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>60,85</t>
+          <t>59,94</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>80,23</t>
+          <t>79,72</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -10909,17 +10909,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3,10</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2,59e-02</t>
+          <t>1,76e-01</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -10939,28 +10939,28 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-11,72</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>60,22</t>
+          <t>59,44</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>79,78</t>
+          <t>79,52</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -10994,17 +10994,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>4,11e-02</t>
+          <t>1,85e-01</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -11024,28 +11024,28 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-23,63</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-15,09</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-13,6</t>
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>59,85</t>
+          <t>58,95</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>79,52</t>
+          <t>79,28</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -11079,58 +11079,58 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>4,07e-02</t>
+          <t>5,04e-01</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>-9,08</t>
+          <t>-119,6</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-16,04</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-61,58</t>
         </is>
       </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>59,79</t>
+          <t>78,67</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>79,45</t>
+          <t>105,60</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -11164,47 +11164,47 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2,30</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>5,81e-02</t>
+          <t>5,01e-01</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-130,09</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-15,47</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>-7,28</t>
+          <t>-64,29</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -11214,22 +11214,22 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>59,49</t>
+          <t>80,21</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>79,25</t>
+          <t>107,13</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-28,59</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>125,79</t>
+          <t>169,62</t>
         </is>
       </c>
     </row>
@@ -11350,17 +11350,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>4,68e-04</t>
+          <t>3,50e-05</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -11380,23 +11380,23 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>18,15</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -11435,17 +11435,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>3,51e-04</t>
+          <t>2,55e-05</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -11465,23 +11465,23 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>18,15</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -11520,17 +11520,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>3,28e-04</t>
+          <t>2,51e-05</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -11550,23 +11550,23 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>18,15</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>7,83e-05</t>
+          <t>2,45e-05</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -11635,17 +11635,17 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O129" t="inlineStr"/>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>21,87</t>
+          <t>21,88</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>7,68e-05</t>
+          <t>2,39e-05</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -11720,42 +11720,42 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>18,16</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>21,88</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
           <t>0,01</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>18,16</t>
-        </is>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>21,87</t>
-        </is>
-      </c>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>447,45</t>
+          <t>447,47</t>
         </is>
       </c>
     </row>
@@ -11876,17 +11876,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>6,42e-04</t>
+          <t>4,60e-05</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -11906,23 +11906,23 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>18,03</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -11961,17 +11961,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>4,96e-04</t>
+          <t>3,45e-05</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -11991,23 +11991,23 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>18,03</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -12046,17 +12046,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1,95e-04</t>
+          <t>2,65e-05</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -12076,28 +12076,28 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>18,01</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R134" t="inlineStr"/>
@@ -12131,17 +12131,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1,71e-04</t>
+          <t>2,39e-05</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -12161,28 +12161,28 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>18,01</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R135" t="inlineStr"/>
@@ -12216,17 +12216,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>7,86e-05</t>
+          <t>2,22e-05</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -12246,17 +12246,17 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -12266,22 +12266,22 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>18,01</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>720,30</t>
+          <t>720,99</t>
         </is>
       </c>
     </row>
@@ -12402,17 +12402,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>6,69e-04</t>
+          <t>4,64e-05</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12432,28 +12432,28 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>24,40</t>
+          <t>24,41</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -12487,17 +12487,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>3,89e-04</t>
+          <t>3,29e-05</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12517,28 +12517,28 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>24,40</t>
+          <t>24,41</t>
         </is>
       </c>
       <c r="R139" t="inlineStr"/>
@@ -12572,17 +12572,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1,81e-04</t>
+          <t>2,36e-05</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -12602,28 +12602,28 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>24,40</t>
+          <t>24,41</t>
         </is>
       </c>
       <c r="R140" t="inlineStr"/>
@@ -12657,17 +12657,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1,40e-04</t>
+          <t>2,13e-05</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -12687,12 +12687,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -12703,12 +12703,12 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>24,40</t>
+          <t>24,41</t>
         </is>
       </c>
       <c r="R141" t="inlineStr"/>
@@ -12742,17 +12742,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>5,84e-05</t>
+          <t>2,00e-05</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -12772,12 +12772,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -12792,22 +12792,22 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,22</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>24,40</t>
+          <t>24,41</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>444,65</t>
+          <t>444,84</t>
         </is>
       </c>
     </row>
@@ -12928,17 +12928,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>9,58e-04</t>
+          <t>7,65e-05</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -12958,28 +12958,28 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>42,32</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>52,30</t>
+          <t>52,31</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -13013,17 +13013,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1,19e-03</t>
+          <t>1,17e-04</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -13043,28 +13043,28 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>42,32</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>52,30</t>
+          <t>52,31</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -13098,17 +13098,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>3,78e-04</t>
+          <t>4,51e-05</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -13128,23 +13128,23 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>42,30</t>
+          <t>42,32</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -13183,17 +13183,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2,07e-04</t>
+          <t>3,87e-05</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13213,23 +13213,23 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>42,31</t>
+          <t>42,32</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -13268,17 +13268,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>1,50e-04</t>
+          <t>3,60e-05</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13298,17 +13298,17 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>42,31</t>
+          <t>42,32</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -13328,12 +13328,12 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>275,24</t>
+          <t>275,31</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>3,61e-03</t>
+          <t>3,49e-03</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -13484,12 +13484,12 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -13544,12 +13544,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>3,17e-03</t>
+          <t>2,93e-03</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -13569,12 +13569,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13624,17 +13624,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2,72e-03</t>
+          <t>2,66e-03</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -13654,23 +13654,23 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>20,62</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
@@ -13709,17 +13709,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2,68e-03</t>
+          <t>2,49e-03</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -13739,17 +13739,17 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
@@ -13794,17 +13794,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2,63e-03</t>
+          <t>1,45e-03</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13824,17 +13824,17 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -13844,22 +13844,22 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>20,60</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25,13</t>
+          <t>25,11</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>1,60</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>205,97</t>
+          <t>205,88</t>
         </is>
       </c>
     </row>
@@ -14070,12 +14070,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>1,27e-03</t>
+          <t>1,26e-03</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -14095,12 +14095,12 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -14111,7 +14111,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>46,04</t>
+          <t>46,03</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -14150,7 +14150,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1,02e-03</t>
+          <t>1,11e-03</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14180,12 +14180,12 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -14235,17 +14235,17 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>8,59e-04</t>
+          <t>8,80e-04</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14265,28 +14265,28 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>46,02</t>
+          <t>46,00</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>56,47</t>
+          <t>56,46</t>
         </is>
       </c>
       <c r="R159" t="inlineStr"/>
@@ -14320,17 +14320,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>8,45e-04</t>
+          <t>8,26e-04</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -14350,17 +14350,17 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -14370,22 +14370,22 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>46,03</t>
+          <t>46,00</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>56,47</t>
+          <t>56,46</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>238,98</t>
+          <t>238,85</t>
         </is>
       </c>
     </row>
@@ -14506,17 +14506,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>1,20e-02</t>
+          <t>5,40e-02</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -14536,28 +14536,28 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-7,6</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>72,03</t>
+          <t>70,77</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>106,86</t>
+          <t>106,26</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -14591,17 +14591,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1,40</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>3,46e-02</t>
+          <t>5,38e-02</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -14621,28 +14621,28 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>71,07</t>
+          <t>70,66</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>106,32</t>
+          <t>106,12</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -14676,17 +14676,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>4,26e-02</t>
+          <t>5,61e-02</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -14706,28 +14706,28 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-12,09</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-12,06</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>70,78</t>
+          <t>70,55</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>106,09</t>
+          <t>105,98</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -14761,17 +14761,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>6,02e-02</t>
+          <t>5,86e-02</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -14791,28 +14791,28 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>-14,51</t>
+          <t>-13,28</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-14,44</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>70,34</t>
+          <t>70,47</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>105,78</t>
+          <t>105,89</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -14846,17 +14846,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>6,31e-02</t>
+          <t>6,12e-02</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -14876,17 +14876,17 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>-16,01</t>
+          <t>-14,58</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-15,55</t>
+          <t>-14,06</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -14896,22 +14896,22 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>70,26</t>
+          <t>70,38</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>105,70</t>
+          <t>105,80</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>153,99</t>
+          <t>154,25</t>
         </is>
       </c>
     </row>
@@ -15032,17 +15032,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>9,72e-03</t>
+          <t>3,31e-02</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -15062,28 +15062,28 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>75,22</t>
+          <t>74,44</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>116,58</t>
+          <t>116,26</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -15117,17 +15117,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1,20</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2,86e-02</t>
+          <t>4,09e-02</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -15147,28 +15147,28 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-11,21</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>74,40</t>
+          <t>74,14</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>116,19</t>
+          <t>116,06</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -15202,17 +15202,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>3,10e-02</t>
+          <t>4,52e-02</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -15232,28 +15232,28 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-15,29</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>74,28</t>
+          <t>73,90</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>116,09</t>
+          <t>115,89</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -15287,17 +15287,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>3,31e-02</t>
+          <t>4,41e-02</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -15317,28 +15317,28 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>-11,71</t>
+          <t>-17,35</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>74,17</t>
+          <t>73,83</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>116,02</t>
+          <t>115,81</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -15372,17 +15372,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,20</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>3,44e-02</t>
+          <t>4,28e-02</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -15402,17 +15402,17 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>-13,36</t>
+          <t>-18,44</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -15422,22 +15422,22 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>74,08</t>
+          <t>73,81</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>115,95</t>
+          <t>115,78</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>171,42</t>
+          <t>170,80</t>
         </is>
       </c>
     </row>
@@ -15558,17 +15558,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>3,60</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2,25e-02</t>
+          <t>1,15e-01</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -15588,28 +15588,28 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-13,05</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>113,47</t>
+          <t>110,79</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>171,15</t>
+          <t>169,62</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -15643,27 +15643,27 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2,74e-02</t>
+          <t>3,30e-01</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -15673,28 +15673,28 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-39,89</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-15,06</t>
         </is>
       </c>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>113,21</t>
+          <t>108,91</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>170,93</t>
+          <t>168,29</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -15728,58 +15728,58 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2,88e-02</t>
+          <t>4,71e-01</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-152,92</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-35,86</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-40,47</t>
         </is>
       </c>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>113,13</t>
+          <t>106,61</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>170,85</t>
+          <t>165,85</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -15813,58 +15813,58 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>4,68e-02</t>
+          <t>5,05e-01</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>-182,98</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>-38,99</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-51,56</t>
         </is>
       </c>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>112,30</t>
+          <t>107,01</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>170,32</t>
+          <t>165,16</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -15898,47 +15898,47 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>5,55e-02</t>
+          <t>5,05e-01</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>-13,48</t>
+          <t>-183,5</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>-39,18</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-51,64</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -15948,22 +15948,22 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>111,97</t>
+          <t>107,01</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>170,08</t>
+          <t>165,16</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>138,24</t>
+          <t>132,12</t>
         </is>
       </c>
     </row>
@@ -16084,17 +16084,17 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5,40</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1,61e-02</t>
+          <t>8,98e-02</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -16114,28 +16114,28 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>122,43</t>
+          <t>119,60</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>166,24</t>
+          <t>164,81</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -16169,17 +16169,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>2,20</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>2,50</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1,77e-02</t>
+          <t>1,75e-01</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -16199,28 +16199,28 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-18,77</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
-          <t>122,26</t>
+          <t>118,16</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>166,11</t>
+          <t>163,92</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -16254,27 +16254,27 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4,50</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>3,90e-02</t>
+          <t>3,54e-01</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -16284,28 +16284,28 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-32,58</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-12,52</t>
         </is>
       </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>120,98</t>
+          <t>117,05</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>165,37</t>
+          <t>163,21</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -16339,27 +16339,27 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3,10</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1,33e-01</t>
+          <t>5,12e-01</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -16369,28 +16369,28 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>-35,07</t>
+          <t>-101,67</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-17,32</t>
+          <t>-33,39</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-28,62</t>
         </is>
       </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>117,78</t>
+          <t>115,19</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>163,03</t>
+          <t>161,20</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -16424,27 +16424,27 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>3,10</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1,33e-01</t>
+          <t>5,48e-01</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -16454,17 +16454,17 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>-35,13</t>
+          <t>-115,8</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-17,21</t>
+          <t>-37,47</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>-10,47</t>
+          <t>-31,61</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -16474,22 +16474,22 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>117,77</t>
+          <t>115,04</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>163,02</t>
+          <t>160,96</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>137,16</t>
+          <t>133,98</t>
         </is>
       </c>
     </row>
